--- a/Disasters in USA/datasets/disaster_count_by_type_wide.xlsx
+++ b/Disasters in USA/datasets/disaster_count_by_type_wide.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">fyDeclared</t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
+    <t xml:space="preserve">Severe Storm(s)</t>
   </si>
   <si>
     <t xml:space="preserve">Fire</t>
@@ -38,10 +38,10 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Volcano</t>
+    <t xml:space="preserve">Volcanic Eruption</t>
   </si>
   <si>
-    <t xml:space="preserve">Severe Storm(s)</t>
+    <t xml:space="preserve">Severe Storm</t>
   </si>
   <si>
     <t xml:space="preserve">Toxic Substances</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Drought</t>
   </si>
   <si>
-    <t xml:space="preserve">Snow</t>
+    <t xml:space="preserve">Snowstorm</t>
   </si>
   <si>
     <t xml:space="preserve">Severe Ice Storm</t>
@@ -499,9 +499,7 @@
       <c r="A2" t="n">
         <v>1953</v>
       </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
         <v>1</v>
       </c>
@@ -536,9 +534,7 @@
       <c r="A3" t="n">
         <v>1954</v>
       </c>
-      <c r="B3" t="n">
-        <v>14</v>
-      </c>
+      <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
         <v>6</v>
@@ -577,9 +573,7 @@
       <c r="A4" t="n">
         <v>1955</v>
       </c>
-      <c r="B4" t="n">
-        <v>20</v>
-      </c>
+      <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
         <v>7</v>
@@ -618,9 +612,7 @@
       <c r="A5" t="n">
         <v>1956</v>
       </c>
-      <c r="B5" t="n">
-        <v>18</v>
-      </c>
+      <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="n">
         <v>10</v>
@@ -659,9 +651,7 @@
       <c r="A6" t="n">
         <v>1957</v>
       </c>
-      <c r="B6" t="n">
-        <v>18</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
         <v>1</v>
       </c>
@@ -700,9 +690,7 @@
       <c r="A7" t="n">
         <v>1958</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
+      <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="n">
         <v>4</v>
@@ -735,9 +723,7 @@
       <c r="A8" t="n">
         <v>1959</v>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
+      <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="n">
         <v>6</v>
@@ -770,9 +756,7 @@
       <c r="A9" t="n">
         <v>1960</v>
       </c>
-      <c r="B9" t="n">
-        <v>13</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
         <v>1</v>
       </c>
@@ -815,9 +799,7 @@
       <c r="A10" t="n">
         <v>1961</v>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="n">
         <v>10</v>
@@ -850,9 +832,7 @@
       <c r="A11" t="n">
         <v>1962</v>
       </c>
-      <c r="B11" t="n">
-        <v>16</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
         <v>1</v>
       </c>
@@ -885,9 +865,7 @@
       <c r="A12" t="n">
         <v>1963</v>
       </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
+      <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="n">
         <v>17</v>
@@ -926,9 +904,7 @@
       <c r="A13" t="n">
         <v>1964</v>
       </c>
-      <c r="B13" t="n">
-        <v>18</v>
-      </c>
+      <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="n">
         <v>9</v>
@@ -969,9 +945,7 @@
       <c r="A14" t="n">
         <v>1965</v>
       </c>
-      <c r="B14" t="n">
-        <v>33</v>
-      </c>
+      <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
         <v>14</v>
@@ -1016,9 +990,7 @@
       <c r="A15" t="n">
         <v>1966</v>
       </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
+      <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="n">
         <v>10</v>
@@ -1053,9 +1025,7 @@
       <c r="A16" t="n">
         <v>1967</v>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" t="n">
         <v>1</v>
       </c>
@@ -1092,9 +1062,7 @@
       <c r="A17" t="n">
         <v>1968</v>
       </c>
-      <c r="B17" t="n">
-        <v>18</v>
-      </c>
+      <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="n">
         <v>11</v>
@@ -1129,9 +1097,7 @@
       <c r="A18" t="n">
         <v>1969</v>
       </c>
-      <c r="B18" t="n">
-        <v>28</v>
-      </c>
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="n">
         <v>21</v>
@@ -1166,9 +1132,7 @@
       <c r="A19" t="n">
         <v>1970</v>
       </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" t="n">
         <v>3</v>
       </c>
@@ -1207,9 +1171,7 @@
       <c r="A20" t="n">
         <v>1971</v>
       </c>
-      <c r="B20" t="n">
-        <v>22</v>
-      </c>
+      <c r="B20"/>
       <c r="C20" t="n">
         <v>3</v>
       </c>
@@ -1252,9 +1214,7 @@
       <c r="A21" t="n">
         <v>1972</v>
       </c>
-      <c r="B21" t="n">
-        <v>43</v>
-      </c>
+      <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="n">
         <v>37</v>
@@ -1293,9 +1253,7 @@
       <c r="A22" t="n">
         <v>1973</v>
       </c>
-      <c r="B22" t="n">
-        <v>55</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" t="n">
         <v>9</v>
       </c>
@@ -1338,9 +1296,7 @@
       <c r="A23" t="n">
         <v>1974</v>
       </c>
-      <c r="B23" t="n">
-        <v>51</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" t="n">
         <v>3</v>
       </c>
@@ -1383,9 +1339,7 @@
       <c r="A24" t="n">
         <v>1975</v>
       </c>
-      <c r="B24" t="n">
-        <v>46</v>
-      </c>
+      <c r="B24"/>
       <c r="C24" t="n">
         <v>1</v>
       </c>
@@ -1426,9 +1380,7 @@
       <c r="A25" t="n">
         <v>1976</v>
       </c>
-      <c r="B25" t="n">
-        <v>45</v>
-      </c>
+      <c r="B25"/>
       <c r="C25" t="n">
         <v>7</v>
       </c>
@@ -1475,9 +1427,7 @@
       <c r="A26" t="n">
         <v>1977</v>
       </c>
-      <c r="B26" t="n">
-        <v>59</v>
-      </c>
+      <c r="B26"/>
       <c r="C26" t="n">
         <v>7</v>
       </c>
@@ -1520,9 +1470,7 @@
       <c r="A27" t="n">
         <v>1978</v>
       </c>
-      <c r="B27" t="n">
-        <v>42</v>
-      </c>
+      <c r="B27"/>
       <c r="C27" t="n">
         <v>2</v>
       </c>
@@ -1563,9 +1511,7 @@
       <c r="A28" t="n">
         <v>1979</v>
       </c>
-      <c r="B28" t="n">
-        <v>59</v>
-      </c>
+      <c r="B28"/>
       <c r="C28" t="n">
         <v>8</v>
       </c>
@@ -1606,9 +1552,7 @@
       <c r="A29" t="n">
         <v>1980</v>
       </c>
-      <c r="B29" t="n">
-        <v>32</v>
-      </c>
+      <c r="B29"/>
       <c r="C29" t="n">
         <v>2</v>
       </c>
@@ -1659,9 +1603,7 @@
       <c r="A30" t="n">
         <v>1981</v>
       </c>
-      <c r="B30" t="n">
-        <v>19</v>
-      </c>
+      <c r="B30"/>
       <c r="C30" t="n">
         <v>5</v>
       </c>
@@ -1702,9 +1644,7 @@
       <c r="A31" t="n">
         <v>1982</v>
       </c>
-      <c r="B31" t="n">
-        <v>26</v>
-      </c>
+      <c r="B31"/>
       <c r="C31" t="n">
         <v>2</v>
       </c>
@@ -1739,9 +1679,7 @@
       <c r="A32" t="n">
         <v>1983</v>
       </c>
-      <c r="B32" t="n">
-        <v>22</v>
-      </c>
+      <c r="B32"/>
       <c r="C32" t="n">
         <v>2</v>
       </c>
@@ -1784,9 +1722,7 @@
       <c r="A33" t="n">
         <v>1984</v>
       </c>
-      <c r="B33" t="n">
-        <v>44</v>
-      </c>
+      <c r="B33"/>
       <c r="C33" t="n">
         <v>4</v>
       </c>
@@ -1831,9 +1767,7 @@
       <c r="A34" t="n">
         <v>1985</v>
       </c>
-      <c r="B34" t="n">
-        <v>28</v>
-      </c>
+      <c r="B34"/>
       <c r="C34" t="n">
         <v>10</v>
       </c>
@@ -1876,9 +1810,7 @@
       <c r="A35" t="n">
         <v>1986</v>
       </c>
-      <c r="B35" t="n">
-        <v>31</v>
-      </c>
+      <c r="B35"/>
       <c r="C35" t="n">
         <v>1</v>
       </c>
@@ -1917,9 +1849,7 @@
       <c r="A36" t="n">
         <v>1987</v>
       </c>
-      <c r="B36" t="n">
-        <v>31</v>
-      </c>
+      <c r="B36"/>
       <c r="C36" t="n">
         <v>7</v>
       </c>
@@ -1962,9 +1892,7 @@
       <c r="A37" t="n">
         <v>1988</v>
       </c>
-      <c r="B37" t="n">
-        <v>23</v>
-      </c>
+      <c r="B37"/>
       <c r="C37" t="n">
         <v>8</v>
       </c>
@@ -2005,9 +1933,7 @@
       <c r="A38" t="n">
         <v>1989</v>
       </c>
-      <c r="B38" t="n">
-        <v>30</v>
-      </c>
+      <c r="B38"/>
       <c r="C38" t="n">
         <v>1</v>
       </c>
@@ -2048,9 +1974,7 @@
       <c r="A39" t="n">
         <v>1990</v>
       </c>
-      <c r="B39" t="n">
-        <v>39</v>
-      </c>
+      <c r="B39"/>
       <c r="C39" t="n">
         <v>5</v>
       </c>
@@ -2099,9 +2023,7 @@
       <c r="A40" t="n">
         <v>1991</v>
       </c>
-      <c r="B40" t="n">
-        <v>41</v>
-      </c>
+      <c r="B40"/>
       <c r="C40" t="n">
         <v>2</v>
       </c>
@@ -2148,9 +2070,7 @@
       <c r="A41" t="n">
         <v>1992</v>
       </c>
-      <c r="B41" t="n">
-        <v>55</v>
-      </c>
+      <c r="B41"/>
       <c r="C41" t="n">
         <v>11</v>
       </c>
@@ -2201,9 +2121,7 @@
       <c r="A42" t="n">
         <v>1993</v>
       </c>
-      <c r="B42" t="n">
-        <v>65</v>
-      </c>
+      <c r="B42"/>
       <c r="C42" t="n">
         <v>7</v>
       </c>
@@ -2254,9 +2172,7 @@
       <c r="A43" t="n">
         <v>1994</v>
       </c>
-      <c r="B43" t="n">
-        <v>57</v>
-      </c>
+      <c r="B43"/>
       <c r="C43" t="n">
         <v>21</v>
       </c>
@@ -2301,9 +2217,7 @@
       <c r="A44" t="n">
         <v>1995</v>
       </c>
-      <c r="B44" t="n">
-        <v>35</v>
-      </c>
+      <c r="B44"/>
       <c r="C44" t="n">
         <v>4</v>
       </c>
@@ -2348,9 +2262,7 @@
       <c r="A45" t="n">
         <v>1996</v>
       </c>
-      <c r="B45" t="n">
-        <v>149</v>
-      </c>
+      <c r="B45"/>
       <c r="C45" t="n">
         <v>79</v>
       </c>
@@ -2389,9 +2301,7 @@
       <c r="A46" t="n">
         <v>1997</v>
       </c>
-      <c r="B46" t="n">
-        <v>58</v>
-      </c>
+      <c r="B46"/>
       <c r="C46" t="n">
         <v>4</v>
       </c>
@@ -2434,9 +2344,7 @@
       <c r="A47" t="n">
         <v>1998</v>
       </c>
-      <c r="B47" t="n">
-        <v>124</v>
-      </c>
+      <c r="B47"/>
       <c r="C47" t="n">
         <v>57</v>
       </c>
@@ -2485,9 +2393,7 @@
       <c r="A48" t="n">
         <v>1999</v>
       </c>
-      <c r="B48" t="n">
-        <v>106</v>
-      </c>
+      <c r="B48"/>
       <c r="C48" t="n">
         <v>40</v>
       </c>
@@ -2534,9 +2440,7 @@
       <c r="A49" t="n">
         <v>2000</v>
       </c>
-      <c r="B49" t="n">
-        <v>104</v>
-      </c>
+      <c r="B49"/>
       <c r="C49" t="n">
         <v>64</v>
       </c>
@@ -2579,9 +2483,7 @@
       <c r="A50" t="n">
         <v>2001</v>
       </c>
-      <c r="B50" t="n">
-        <v>103</v>
-      </c>
+      <c r="B50"/>
       <c r="C50" t="n">
         <v>41</v>
       </c>
@@ -2632,9 +2534,7 @@
       <c r="A51" t="n">
         <v>2002</v>
       </c>
-      <c r="B51" t="n">
-        <v>125</v>
-      </c>
+      <c r="B51"/>
       <c r="C51" t="n">
         <v>84</v>
       </c>
@@ -2683,9 +2583,7 @@
       <c r="A52" t="n">
         <v>2003</v>
       </c>
-      <c r="B52" t="n">
-        <v>115</v>
-      </c>
+      <c r="B52"/>
       <c r="C52" t="n">
         <v>35</v>
       </c>
@@ -2734,9 +2632,7 @@
       <c r="A53" t="n">
         <v>2004</v>
       </c>
-      <c r="B53" t="n">
-        <v>129</v>
-      </c>
+      <c r="B53"/>
       <c r="C53" t="n">
         <v>59</v>
       </c>
@@ -2783,9 +2679,7 @@
       <c r="A54" t="n">
         <v>2005</v>
       </c>
-      <c r="B54" t="n">
-        <v>139</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" t="n">
         <v>27</v>
       </c>
@@ -2830,9 +2724,7 @@
       <c r="A55" t="n">
         <v>2006</v>
       </c>
-      <c r="B55" t="n">
-        <v>151</v>
-      </c>
+      <c r="B55"/>
       <c r="C55" t="n">
         <v>96</v>
       </c>
@@ -2877,9 +2769,7 @@
       <c r="A56" t="n">
         <v>2007</v>
       </c>
-      <c r="B56" t="n">
-        <v>133</v>
-      </c>
+      <c r="B56"/>
       <c r="C56" t="n">
         <v>55</v>
       </c>
@@ -2928,9 +2818,7 @@
       <c r="A57" t="n">
         <v>2008</v>
       </c>
-      <c r="B57" t="n">
-        <v>141</v>
-      </c>
+      <c r="B57"/>
       <c r="C57" t="n">
         <v>60</v>
       </c>
@@ -2971,9 +2859,7 @@
       <c r="A58" t="n">
         <v>2009</v>
       </c>
-      <c r="B58" t="n">
-        <v>125</v>
-      </c>
+      <c r="B58"/>
       <c r="C58" t="n">
         <v>54</v>
       </c>
@@ -3020,9 +2906,7 @@
       <c r="A59" t="n">
         <v>2010</v>
       </c>
-      <c r="B59" t="n">
-        <v>109</v>
-      </c>
+      <c r="B59"/>
       <c r="C59" t="n">
         <v>21</v>
       </c>
@@ -3069,9 +2953,7 @@
       <c r="A60" t="n">
         <v>2011</v>
       </c>
-      <c r="B60" t="n">
-        <v>236</v>
-      </c>
+      <c r="B60"/>
       <c r="C60" t="n">
         <v>114</v>
       </c>
@@ -3114,9 +2996,7 @@
       <c r="A61" t="n">
         <v>2012</v>
       </c>
-      <c r="B61" t="n">
-        <v>103</v>
-      </c>
+      <c r="B61"/>
       <c r="C61" t="n">
         <v>53</v>
       </c>
@@ -3157,9 +3037,7 @@
       <c r="A62" t="n">
         <v>2013</v>
       </c>
-      <c r="B62" t="n">
-        <v>111</v>
-      </c>
+      <c r="B62"/>
       <c r="C62" t="n">
         <v>32</v>
       </c>
@@ -3210,9 +3088,7 @@
       <c r="A63" t="n">
         <v>2014</v>
       </c>
-      <c r="B63" t="n">
-        <v>85</v>
-      </c>
+      <c r="B63"/>
       <c r="C63" t="n">
         <v>34</v>
       </c>
@@ -3257,9 +3133,7 @@
       <c r="A64" t="n">
         <v>2015</v>
       </c>
-      <c r="B64" t="n">
-        <v>78</v>
-      </c>
+      <c r="B64"/>
       <c r="C64" t="n">
         <v>35</v>
       </c>
@@ -3304,9 +3178,7 @@
       <c r="A65" t="n">
         <v>2016</v>
       </c>
-      <c r="B65" t="n">
-        <v>84</v>
-      </c>
+      <c r="B65"/>
       <c r="C65" t="n">
         <v>40</v>
       </c>
@@ -3353,9 +3225,7 @@
       <c r="A66" t="n">
         <v>2017</v>
       </c>
-      <c r="B66" t="n">
-        <v>135</v>
-      </c>
+      <c r="B66"/>
       <c r="C66" t="n">
         <v>61</v>
       </c>
@@ -3402,9 +3272,7 @@
       <c r="A67" t="n">
         <v>2018</v>
       </c>
-      <c r="B67" t="n">
-        <v>132</v>
-      </c>
+      <c r="B67"/>
       <c r="C67" t="n">
         <v>70</v>
       </c>
@@ -3453,9 +3321,7 @@
       <c r="A68" t="n">
         <v>2019</v>
       </c>
-      <c r="B68" t="n">
-        <v>102</v>
-      </c>
+      <c r="B68"/>
       <c r="C68" t="n">
         <v>17</v>
       </c>
@@ -3500,9 +3366,7 @@
       <c r="A69" t="n">
         <v>2020</v>
       </c>
-      <c r="B69" t="n">
-        <v>315</v>
-      </c>
+      <c r="B69"/>
       <c r="C69" t="n">
         <v>88</v>
       </c>
@@ -3551,9 +3415,7 @@
       <c r="A70" t="n">
         <v>2021</v>
       </c>
-      <c r="B70" t="n">
-        <v>123</v>
-      </c>
+      <c r="B70"/>
       <c r="C70" t="n">
         <v>47</v>
       </c>
@@ -3605,27 +3467,27 @@
         <v>2022</v>
       </c>
       <c r="B71" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="n">
         <v>6</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71"/>
       <c r="J71" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K71"/>
       <c r="L71"/>
@@ -3637,7 +3499,7 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S71"/>
       <c r="T71" t="n">
@@ -3649,6 +3511,43 @@
       <c r="X71"/>
       <c r="Y71"/>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
